--- a/LuaChonCapTien.xlsx
+++ b/LuaChonCapTien.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>Người thực hiện:</t>
   </si>
@@ -160,6 +160,21 @@
   </si>
   <si>
     <t>Ít nhất là trên khung H1 hay H4 để đảm bảo cho việc giao dịch ngắn hạn trong ngày hoặc trong tuần</t>
+  </si>
+  <si>
+    <t>Phản ứng rõ ràng khi tiếp xúc với keylevel</t>
+  </si>
+  <si>
+    <t>Hình thành những keylevel rõ ràng</t>
+  </si>
+  <si>
+    <t>Chúng ta cần tìm những cặp tiền chạy rõ ràng, dứt khoát</t>
+  </si>
+  <si>
+    <t>Nhiều cặp tiền nó chạy nhây một cách khó tả</t>
+  </si>
+  <si>
+    <t>Và hình thành những cây nến toàn râu là râu, việc này dẫn đến khó phân tích và khi vào lệnh dễ dính stoploss</t>
   </si>
 </sst>
 </file>
@@ -538,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,6 +941,32 @@
       <c r="B68">
         <v>5</v>
       </c>
+      <c r="C68" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>6</v>
+      </c>
+      <c r="C70" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LuaChonCapTien.xlsx
+++ b/LuaChonCapTien.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>Người thực hiện:</t>
   </si>
@@ -175,13 +175,16 @@
   </si>
   <si>
     <t>Và hình thành những cây nến toàn râu là râu, việc này dẫn đến khó phân tích và khi vào lệnh dễ dính stoploss</t>
+  </si>
+  <si>
+    <t>Lĩnh ngộ tinh túy thị trường</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,6 +235,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -253,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -273,6 +284,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,7 +577,7 @@
     <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="90" x14ac:dyDescent="1.1499999999999999">
+    <row r="1" spans="1:11" ht="90" x14ac:dyDescent="1.1499999999999999">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -578,7 +590,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -589,7 +601,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -604,7 +616,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -619,7 +631,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -630,7 +642,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -645,7 +657,7 @@
       </c>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -658,7 +670,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -671,7 +683,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -682,7 +694,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -697,7 +709,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -709,13 +721,16 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-    </row>
-    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K12" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
         <v>20</v>
       </c>
